--- a/scripts/Timeline/Epochs.xlsx
+++ b/scripts/Timeline/Epochs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -213,6 +213,24 @@
   </si>
   <si>
     <t>#33cccc</t>
+  </si>
+  <si>
+    <t>#e6e6e6</t>
+  </si>
+  <si>
+    <t>#ccccff</t>
+  </si>
+  <si>
+    <t>#ffccff</t>
+  </si>
+  <si>
+    <t>#ffcc99</t>
+  </si>
+  <si>
+    <t>#ccff66</t>
+  </si>
+  <si>
+    <t>#66ffcc</t>
   </si>
 </sst>
 </file>
@@ -571,7 +589,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="G3:K3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +663,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="G3:K3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,11 +706,11 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <f>LOG10(C3+1)</f>
+        <f t="shared" ref="G3:H6" si="0">LOG10(C3+1)</f>
         <v>9.6053050462488745</v>
       </c>
       <c r="H3">
-        <f>LOG10(D3+1)</f>
+        <f t="shared" si="0"/>
         <v>9.6599162001648811</v>
       </c>
       <c r="I3" t="str">
@@ -723,11 +741,11 @@
         <v>17</v>
       </c>
       <c r="G4">
-        <f>LOG10(C4+1)</f>
+        <f t="shared" si="0"/>
         <v>9.383815366159892</v>
       </c>
       <c r="H4">
-        <f>LOG10(D4+1)</f>
+        <f t="shared" si="0"/>
         <v>9.6053050462488745</v>
       </c>
       <c r="I4" t="str">
@@ -738,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K6" si="0">"'"&amp;B4&amp;"'"</f>
+        <f t="shared" ref="K4:K6" si="1">"'"&amp;B4&amp;"'"</f>
         <v>'Archean'</v>
       </c>
     </row>
@@ -758,11 +776,11 @@
         <v>18</v>
       </c>
       <c r="G5">
-        <f>LOG10(C5+1)</f>
+        <f t="shared" si="0"/>
         <v>8.7331972659093324</v>
       </c>
       <c r="H5">
-        <f>LOG10(D5+1)</f>
+        <f t="shared" si="0"/>
         <v>9.383815366159892</v>
       </c>
       <c r="I5" t="str">
@@ -773,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Proterozoic'</v>
       </c>
     </row>
@@ -792,11 +810,11 @@
         <v>19</v>
       </c>
       <c r="G6">
-        <f>LOG10(C6+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>LOG10(D6+1)</f>
+        <f t="shared" si="0"/>
         <v>8.7331972659093324</v>
       </c>
       <c r="I6" t="str">
@@ -807,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Phanerozoic'</v>
       </c>
     </row>
@@ -821,7 +839,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:K5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,11 +882,11 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <f>LOG10(C3+1)</f>
+        <f t="shared" ref="G3:H5" si="0">LOG10(C3+1)</f>
         <v>8.4014005425049341</v>
       </c>
       <c r="H3">
-        <f>LOG10(D3+1)</f>
+        <f t="shared" si="0"/>
         <v>8.7331972659093324</v>
       </c>
       <c r="I3" t="str">
@@ -899,11 +917,11 @@
         <v>21</v>
       </c>
       <c r="G4">
-        <f>LOG10(C4+1)</f>
+        <f t="shared" si="0"/>
         <v>7.8195439421220883</v>
       </c>
       <c r="H4">
-        <f>LOG10(D4+1)</f>
+        <f t="shared" si="0"/>
         <v>8.4014005425049341</v>
       </c>
       <c r="I4" t="str">
@@ -933,11 +951,11 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <f>LOG10(C5+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>LOG10(D5+1)</f>
+        <f t="shared" si="0"/>
         <v>7.8195439421220883</v>
       </c>
       <c r="I5" t="str">
@@ -962,7 +980,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="G3:K14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,9 +1479,8 @@
         <f>LOG10(D3+1)</f>
         <v>6.5185140714822563</v>
       </c>
-      <c r="I3" t="str">
-        <f>E3</f>
-        <v>#0066ff</v>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -1487,22 +1504,21 @@
         <v>64</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:H14" si="0">LOG10(C4+1)</f>
+        <f t="shared" ref="G4:H12" si="0">LOG10(C4+1)</f>
         <v>4.6989786901387989</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
         <v>5.4771227023655227</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I14" si="1">E4</f>
-        <v>#33cccc</v>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K14" si="2">"'"&amp;B4&amp;"'"</f>
+        <f t="shared" ref="K4:K12" si="1">"'"&amp;B4&amp;"'"</f>
         <v>'Middle Paleolithic'</v>
       </c>
     </row>
@@ -1527,15 +1543,14 @@
         <f t="shared" si="0"/>
         <v>4.6989786901387989</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>#00cc66</v>
+      <c r="I5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Upper Paleolithic'</v>
       </c>
     </row>
@@ -1560,15 +1575,14 @@
         <f t="shared" si="0"/>
         <v>4.0863954271242502</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>#669900</v>
+      <c r="I6" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Neolithic'</v>
       </c>
     </row>
@@ -1593,15 +1607,14 @@
         <f t="shared" si="0"/>
         <v>3.7243578042264267</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>#996633</v>
+      <c r="I7" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Bronze Age'</v>
       </c>
     </row>
@@ -1626,15 +1639,14 @@
         <f t="shared" si="0"/>
         <v>3.5052856741441323</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>#cc6600</v>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Iron Age'</v>
       </c>
     </row>
@@ -1659,15 +1671,14 @@
         <f t="shared" si="0"/>
         <v>3.3981136917305026</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>#ffcc66</v>
+      <c r="I9" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Classical Era'</v>
       </c>
     </row>
@@ -1692,15 +1703,14 @@
         <f t="shared" si="0"/>
         <v>3.1763806922432702</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v>#99ff99</v>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Medieval'</v>
       </c>
     </row>
@@ -1725,15 +1735,14 @@
         <f t="shared" si="0"/>
         <v>2.6998377258672459</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>#66ccff</v>
+      <c r="I11" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Early Modern'</v>
       </c>
     </row>
@@ -1758,19 +1767,19 @@
         <f t="shared" si="0"/>
         <v>2.3031960574204891</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>#ff99ff</v>
+      <c r="I12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Modern'</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/scripts/Timeline/Epochs.xlsx
+++ b/scripts/Timeline/Epochs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K6" si="1">"'"&amp;B4&amp;"'"</f>
+        <f>"'"&amp;B4&amp;"'"</f>
         <v>'Archean'</v>
       </c>
     </row>
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B5&amp;"'"</f>
         <v>'Proterozoic'</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f>"'"&amp;B6&amp;"'"</f>
         <v>'Phanerozoic'</v>
       </c>
     </row>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/scripts/Timeline/Epochs.xlsx
+++ b/scripts/Timeline/Epochs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
